--- a/HW3/Inventor/BOM/bom.xlsx
+++ b/HW3/Inventor/BOM/bom.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="54">
   <si>
     <t>Item</t>
   </si>
@@ -93,6 +93,9 @@
     <t>17</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>АНЦП.014.00.00.010</t>
   </si>
   <si>
@@ -144,6 +147,9 @@
     <t>ANSI B18.6.5M - M3x0,5 x 8 - T - IA</t>
   </si>
   <si>
+    <t>ANSI B18.6.5M - M3x0,5 x 13  - T - IA</t>
+  </si>
+  <si>
     <t>(NonDisplayable)</t>
   </si>
   <si>
@@ -166,13 +172,52 @@
   </si>
   <si>
     <t>Cross Recessed Flat Countersunk Head Tapping Screw - Type D - Type IA - Metric</t>
+  </si>
+  <si>
+    <t>Cross Recessed Pan Head Tapping Screw - Type T - Type IA - Metric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="163">
+  <fonts count="172">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -834,7 +879,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="163">
+  <borders count="172">
     <border>
       <left/>
       <right/>
@@ -1976,11 +2021,74 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="163">
+  <cellXfs count="172">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -2627,6 +2735,42 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="162" fillId="0" borderId="162" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="163" fillId="0" borderId="163" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="164" fillId="0" borderId="164" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="165" fillId="0" borderId="165" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="166" fillId="0" borderId="166" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="167" fillId="0" borderId="167" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="168" fillId="0" borderId="168" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="169" fillId="0" borderId="169" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="170" fillId="0" borderId="170" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="171" fillId="0" borderId="171" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3302,12 +3446,51 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="true"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="904875"/>
+          <a:ext cx="1219370" cy="1219370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="10.85546875" customWidth="true"/>
@@ -3346,442 +3529,468 @@
       <c r="A2" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="61" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" s="78" t="s">
+      <c r="B2" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="95">
+      <c r="E2" s="82" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="100">
         <v>4</v>
       </c>
-      <c r="G2" s="112" t="s">
-        <v>47</v>
-      </c>
-      <c r="H2" s="129" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="146" t="s">
-        <v>47</v>
+      <c r="G2" s="118" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="136" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="154" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" ht="54.6" customHeight="true">
       <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="62" t="s">
-        <v>44</v>
-      </c>
-      <c r="E3" s="79" t="s">
+      <c r="B3" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="96">
+      <c r="E3" s="83" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="101">
         <v>1</v>
       </c>
-      <c r="G3" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="130" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="147" t="s">
-        <v>47</v>
+      <c r="G3" s="119" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="155" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="4" ht="54.6" customHeight="true">
       <c r="A4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="80" t="s">
+      <c r="B4" s="30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="97">
+      <c r="E4" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="102">
         <v>1</v>
       </c>
-      <c r="G4" s="114" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="131" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" s="148" t="s">
-        <v>47</v>
+      <c r="G4" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="138" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="156" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="5" ht="54.6" customHeight="true">
       <c r="A5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="81" t="s">
+      <c r="B5" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="98">
+      <c r="E5" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="103">
         <v>1</v>
       </c>
-      <c r="G5" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="132" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" s="149" t="s">
-        <v>47</v>
+      <c r="G5" s="121" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="139" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="157" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" ht="54.6" customHeight="true">
       <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="65" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" s="82" t="s">
+      <c r="B6" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="99">
+      <c r="E6" s="86" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="104">
         <v>1</v>
       </c>
-      <c r="G6" s="116" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="133" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" s="150" t="s">
-        <v>47</v>
+      <c r="G6" s="122" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="140" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="158" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="7" ht="54.6" customHeight="true">
       <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="83" t="s">
+      <c r="B7" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="F7" s="100">
+      <c r="E7" s="87" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="105">
         <v>1</v>
       </c>
-      <c r="G7" s="117" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="134" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="151" t="s">
-        <v>47</v>
+      <c r="G7" s="123" t="s">
+        <v>49</v>
+      </c>
+      <c r="H7" s="141" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="159" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" ht="54.6" customHeight="true">
       <c r="A8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="67" t="s">
-        <v>44</v>
-      </c>
-      <c r="E8" s="84" t="s">
+      <c r="B8" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="70" t="s">
         <v>46</v>
       </c>
-      <c r="F8" s="101">
+      <c r="E8" s="88" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="106">
         <v>1</v>
       </c>
-      <c r="G8" s="118" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="135" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" s="152" t="s">
-        <v>47</v>
+      <c r="G8" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="142" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="160" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" ht="54.6" customHeight="true">
       <c r="A9" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="85" t="s">
+      <c r="B9" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="F9" s="102">
+      <c r="E9" s="89" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="107">
         <v>1</v>
       </c>
-      <c r="G9" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="136" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="153" t="s">
-        <v>47</v>
+      <c r="G9" s="125" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="143" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="161" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" ht="54.6" customHeight="true">
       <c r="A10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="E10" s="86" t="s">
+      <c r="B10" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="F10" s="103">
+      <c r="E10" s="90" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="108">
         <v>1</v>
       </c>
-      <c r="G10" s="120" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" s="137" t="s">
-        <v>47</v>
-      </c>
-      <c r="I10" s="154" t="s">
-        <v>47</v>
+      <c r="G10" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="144" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="162" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" ht="54.6" customHeight="true">
       <c r="A11" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>44</v>
-      </c>
-      <c r="E11" s="87" t="s">
+      <c r="B11" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="F11" s="104">
+      <c r="E11" s="91" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="109">
         <v>1</v>
       </c>
-      <c r="G11" s="121" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="138" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="155" t="s">
-        <v>47</v>
+      <c r="G11" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="145" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="163" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="12" ht="54.6" customHeight="true">
       <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" s="88" t="s">
+      <c r="B12" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="105">
+      <c r="E12" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="110">
         <v>1</v>
       </c>
-      <c r="G12" s="122" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" s="139" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="156" t="s">
-        <v>47</v>
+      <c r="G12" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="146" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="164" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" ht="54.6" customHeight="true">
       <c r="A13" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="F13" s="106">
+      <c r="B13" s="39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="75" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="93" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="111">
         <v>2</v>
       </c>
-      <c r="G13" s="123" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="140" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="157" t="s">
-        <v>47</v>
+      <c r="G13" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="147" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" s="165" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="14" ht="54.6" customHeight="true">
       <c r="A14" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="73" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" s="90" t="s">
+      <c r="B14" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="76" t="s">
         <v>46</v>
       </c>
-      <c r="F14" s="107">
+      <c r="E14" s="94" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="112">
         <v>1</v>
       </c>
-      <c r="G14" s="124" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="141" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" s="158" t="s">
-        <v>47</v>
+      <c r="G14" s="130" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="148" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="166" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="15" ht="54.6" customHeight="true">
       <c r="A15" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="40" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="108">
+      <c r="B15" s="41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="113">
         <v>1</v>
       </c>
-      <c r="G15" s="125" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="142" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="159" t="s">
-        <v>47</v>
+      <c r="G15" s="131" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" s="149" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="167" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="16" ht="54.6" customHeight="true">
       <c r="A16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="75" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="92" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="109">
+      <c r="B16" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="96" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="114">
         <v>8</v>
       </c>
-      <c r="G16" s="126" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="143" t="s">
-        <v>50</v>
-      </c>
-      <c r="I16" s="160" t="s">
-        <v>47</v>
+      <c r="G16" s="132" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="150" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" s="168" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" ht="54.6" customHeight="true">
       <c r="A17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="42" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="93" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="110">
+      <c r="B17" s="43" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="97" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="115">
         <v>3</v>
       </c>
-      <c r="G17" s="127" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="144" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="161" t="s">
-        <v>47</v>
+      <c r="G17" s="133" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="151" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="169" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="54.6" customHeight="true">
       <c r="A18" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="43" t="s">
-        <v>42</v>
-      </c>
-      <c r="D18" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="E18" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="F18" s="111">
+      <c r="B18" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="80" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="98" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="116">
         <v>4</v>
       </c>
-      <c r="G18" s="128" t="s">
+      <c r="G18" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="170" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="54.6" customHeight="true">
+      <c r="A19" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="H18" s="145" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="162" t="s">
-        <v>47</v>
+      <c r="E19" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="117">
+        <v>1</v>
+      </c>
+      <c r="G19" s="135" t="s">
+        <v>49</v>
+      </c>
+      <c r="H19" s="153" t="s">
+        <v>53</v>
+      </c>
+      <c r="I19" s="171" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
